--- a/Gaman - User Feedback - Commuters (Responses).xlsx
+++ b/Gaman - User Feedback - Commuters (Responses).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aftha\Docs\ICT 4001 - Research Project\public transportation\7. draft final report\finalThesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses" sheetId="1" r:id="rId1"/>
@@ -371,10 +376,6 @@
     <t>It's better if the information were presented in a better way (in other words, visualized better, using graphs etc)</t>
   </si>
   <si>
-    <t>It's better if the information were presented in a better way, so that those can be found easily (E.g. provide searching facilities etc.)
-Also, the user concerns about the reliability of the information given though the site. For example, if a user wants to know the trip time, and Gaman-site says it's 35 mins, then he might be interested in knowing how many users have contributed to this data.</t>
-  </si>
-  <si>
     <t>Better increase the user-friendliness. E.g. provide easy searching, navigation etc.</t>
   </si>
   <si>
@@ -461,6 +462,9 @@
   </si>
   <si>
     <t>I complaint functionality add feature that enable users to share any attachments like photos which will be a proof and can get rid of fake complaints.</t>
+  </si>
+  <si>
+    <t>It's better if the information were presented in a better way, so that those can be found easily (E.g. provide searching facilities etc.) Also, the user concerns about the reliability of the information given though the site. For example, if a user wants to know the trip time, and Gaman-site says it's 35 mins, then he might be interested in knowing how many users have contributed to this data.</t>
   </si>
 </sst>
 </file>
@@ -568,6 +572,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -895,21 +907,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="16" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>41551.747361111098</v>
       </c>
@@ -987,11 +1000,17 @@
         <v>4</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>4</v>
+      </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2">
         <v>5</v>
@@ -1005,7 +1024,7 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>41551.751990740697</v>
       </c>
@@ -1048,7 +1067,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>41551.754942129599</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>41551.771018518499</v>
       </c>
@@ -1142,7 +1161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>41551.795231481497</v>
       </c>
@@ -1187,7 +1206,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>41551.803703703699</v>
       </c>
@@ -1246,7 +1265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>41551.8222453704</v>
       </c>
@@ -1289,7 +1308,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1">
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>41552.032500000001</v>
       </c>
@@ -1346,7 +1365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>41553.5473263889</v>
       </c>
@@ -1387,7 +1406,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="12.75" customHeight="1">
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>41553.549131944397</v>
       </c>
@@ -1428,7 +1447,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="12.75" customHeight="1">
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>41553.5635763889</v>
       </c>
@@ -1481,7 +1500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.75" customHeight="1">
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>41553.577465277798</v>
       </c>
@@ -1508,9 +1527,13 @@
         <v>4</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2">
         <v>5</v>
@@ -1522,7 +1545,7 @@
       </c>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="12.75" customHeight="1">
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>41553.612233796302</v>
       </c>
@@ -1549,9 +1572,13 @@
         <v>5</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2">
         <v>5</v>
@@ -1567,7 +1594,7 @@
       </c>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>41553.612280092602</v>
       </c>
@@ -1592,7 +1619,9 @@
         <v>5</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2">
         <v>5</v>
@@ -1614,7 +1643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.75" customHeight="1">
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>41553.649178240703</v>
       </c>
@@ -1661,7 +1690,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="12.75" customHeight="1">
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>41553.698333333297</v>
       </c>
@@ -1712,7 +1741,7 @@
       </c>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="12.75" customHeight="1">
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>41553.773923611101</v>
       </c>
@@ -1757,7 +1786,7 @@
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>41553.891782407401</v>
       </c>
@@ -1808,7 +1837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1">
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>41554.250972222202</v>
       </c>
@@ -1859,7 +1888,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1">
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>41554.352291666699</v>
       </c>
@@ -1908,7 +1937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>41554.496874999997</v>
       </c>
@@ -1955,7 +1984,7 @@
       </c>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="12.75" customHeight="1">
+    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>41554.574745370403</v>
       </c>
@@ -1998,7 +2027,7 @@
       </c>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1">
+    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>41554.581076388902</v>
       </c>
@@ -2023,9 +2052,13 @@
       <c r="J24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>4</v>
+      </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2">
+        <v>4</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
         <v>4</v>
@@ -2037,7 +2070,7 @@
       </c>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1">
+    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>41554.597476851799</v>
       </c>
@@ -2088,7 +2121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="12.75" customHeight="1">
+    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>41554.690115740697</v>
       </c>
@@ -2131,7 +2164,7 @@
       </c>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="12.75" customHeight="1">
+    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>41554.862164351798</v>
       </c>
@@ -2174,7 +2207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="12.75" customHeight="1">
+    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>41555.110798611102</v>
       </c>
@@ -2199,19 +2232,19 @@
         <v>4</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="2">
-        <v>4</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="M28" s="2">
-        <v>4</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="O28" s="2">
         <v>3</v>
@@ -2222,15 +2255,15 @@
         <v>26</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>41555.378240740698</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
@@ -2250,15 +2283,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>3</v>
+      </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2">
+        <v>3</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2">
         <v>4</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
@@ -2266,18 +2303,18 @@
       </c>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="12.75" customHeight="1">
+    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>41555.379120370402</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>51</v>
@@ -2289,35 +2326,39 @@
         <v>3</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="2">
+        <v>4</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2">
         <v>4</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>41555.386446759301</v>
       </c>
@@ -2358,18 +2399,18 @@
       </c>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="12.75" customHeight="1">
+    <row r="32" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>41555.392175925903</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>46</v>
@@ -2403,12 +2444,12 @@
       </c>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="12.75" customHeight="1">
+    <row r="33" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>41555.412164351801</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>19</v>
@@ -2446,18 +2487,18 @@
       </c>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="12.75" customHeight="1">
+    <row r="34" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>41555.6150694444</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -2491,7 +2532,7 @@
       </c>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="12.75" customHeight="1">
+    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>41555.649537037003</v>
       </c>
@@ -2514,9 +2555,13 @@
         <v>4</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>4</v>
+      </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="M35" s="2">
+        <v>4</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2">
         <v>4</v>
@@ -2528,12 +2573,12 @@
       </c>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="12.75" customHeight="1">
+    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>41555.930081018501</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -2543,7 +2588,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -2571,18 +2616,18 @@
       </c>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="12.75" customHeight="1">
+    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>41556.439525463</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -2616,7 +2661,7 @@
       </c>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1">
+    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>41556.646030092597</v>
       </c>
@@ -2626,7 +2671,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>36</v>
@@ -2635,41 +2680,41 @@
         <v>4</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I38" s="2">
-        <v>5</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="2">
-        <v>4</v>
-      </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2">
+        <v>5</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M38" s="2">
-        <v>5</v>
-      </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="O38" s="2">
-        <v>4</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>41557.572083333303</v>
       </c>
@@ -2688,11 +2733,17 @@
         <v>4</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2">
+        <v>4</v>
+      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <v>4</v>
+      </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2">
+        <v>4</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2">
         <v>3</v>
@@ -2704,7 +2755,7 @@
       </c>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1">
+    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>41557.577430555597</v>
       </c>
